--- a/Webscraping_With_BeautifulSoup/Test.xlsx
+++ b/Webscraping_With_BeautifulSoup/Test.xlsx
@@ -1,52 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping_With_BeautifulSoup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B339741-698A-44F0-81C4-BCCEBED57740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{21DC29D4-67BD-413C-8C6C-B1DE2BE598B3}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAB" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fbfce1"/>
+        <bgColor rgb="00fbfce1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,22 +51,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -376,13 +359,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0700F-B2BF-4EA8-8908-252837D26EE7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="n">
+        <v>36</v>
+      </c>
+      <c r="D16" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Webscraping_With_BeautifulSoup/Test.xlsx
+++ b/Webscraping_With_BeautifulSoup/Test.xlsx
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -36,6 +36,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00fbfce1"/>
         <bgColor rgb="00fbfce1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008af542"/>
+        <bgColor rgb="008af542"/>
       </patternFill>
     </fill>
   </fills>
@@ -51,10 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -502,7 +509,7 @@
       <c r="A10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
@@ -516,7 +523,7 @@
       <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>21</v>
       </c>
       <c r="C11" t="n">
@@ -530,7 +537,7 @@
       <c r="A12" t="n">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>22</v>
       </c>
       <c r="C12" t="n">
@@ -544,7 +551,7 @@
       <c r="A13" t="n">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="3" t="n">
         <v>23</v>
       </c>
       <c r="C13" t="n">

--- a/Webscraping_With_BeautifulSoup/Test.xlsx
+++ b/Webscraping_With_BeautifulSoup/Test.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAB" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,14 +34,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fbfce1"/>
-        <bgColor rgb="00fbfce1"/>
+        <fgColor rgb="FFFBFCE1"/>
+        <bgColor rgb="FFFBFCE1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008af542"/>
-        <bgColor rgb="008af542"/>
+        <fgColor rgb="FF8AF542"/>
+        <bgColor rgb="FF8AF542"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,8 +57,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -371,81 +370,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="n">
+      <c r="A1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>21</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>22</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>24</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>35</v>
       </c>
     </row>
@@ -453,13 +452,13 @@
       <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>36</v>
       </c>
     </row>
@@ -467,13 +466,13 @@
       <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -481,13 +480,13 @@
       <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>38</v>
       </c>
     </row>
@@ -495,13 +494,13 @@
       <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
     </row>
@@ -509,13 +508,13 @@
       <c r="A10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="C10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>30</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>40</v>
       </c>
     </row>
@@ -523,13 +522,13 @@
       <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="C11" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>31</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>41</v>
       </c>
     </row>
@@ -537,13 +536,13 @@
       <c r="A12" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="C12" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>32</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>42</v>
       </c>
     </row>
@@ -551,13 +550,13 @@
       <c r="A13" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="C13" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>33</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>43</v>
       </c>
     </row>
@@ -565,13 +564,13 @@
       <c r="A14" t="n">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>34</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>44</v>
       </c>
     </row>
@@ -579,13 +578,13 @@
       <c r="A15" t="n">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>25</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>35</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>45</v>
       </c>
     </row>
@@ -593,13 +592,13 @@
       <c r="A16" t="n">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>26</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>36</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>46</v>
       </c>
     </row>
@@ -607,13 +606,13 @@
       <c r="A17" t="n">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>27</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>37</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>47</v>
       </c>
     </row>
